--- a/medicine/Maladies infectieuses/Together_at_Home/Together_at_Home.xlsx
+++ b/medicine/Maladies infectieuses/Together_at_Home/Together_at_Home.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Together at Home, également connu sous le nom de One World: Together At Home, est une série de concerts virtuels organisés par Global Citizen et l'artiste et chanteuse engagée Lady Gaga le 18 avril 2020, en collaboration avec l'Organisation mondiale de la santé[2], pour lutter contre la COVID-19 et soutenir le personnel soignant durant la pandémie.
-Les six premières heures du concert ont été diffusées sur YouTube et sur les réseaux sociaux. Les deux dernières heures sont, en plus, diffusées sur de nombreuses chaînes télévisées de plus de 50 pays. Ce gigantesque concert caritatif à domicile rassemble plus de 70 artistes internationaux tels que Stevie Wonder, Elton John, The Rolling Stones, Paul McCartney, Lady Gaga, Céline Dion, Jennifer Lopez, Sam Smith, Chris Martin, Billie Joe Armstrong, Andrea Bocelli, Taylor Swift, Dua Lipa, Billie Eilish ou John Legend. L'événement est suivis par plusieurs centaines de millions de spectateurs à travers le monde et permet de récolter près de 128 millions de dollars de promesse de dons[3] qui seront utilisés dans la recherche d'un vaccin, et dans la production de masques et de respirateurs.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Together at Home, également connu sous le nom de One World: Together At Home, est une série de concerts virtuels organisés par Global Citizen et l'artiste et chanteuse engagée Lady Gaga le 18 avril 2020, en collaboration avec l'Organisation mondiale de la santé, pour lutter contre la COVID-19 et soutenir le personnel soignant durant la pandémie.
+Les six premières heures du concert ont été diffusées sur YouTube et sur les réseaux sociaux. Les deux dernières heures sont, en plus, diffusées sur de nombreuses chaînes télévisées de plus de 50 pays. Ce gigantesque concert caritatif à domicile rassemble plus de 70 artistes internationaux tels que Stevie Wonder, Elton John, The Rolling Stones, Paul McCartney, Lady Gaga, Céline Dion, Jennifer Lopez, Sam Smith, Chris Martin, Billie Joe Armstrong, Andrea Bocelli, Taylor Swift, Dua Lipa, Billie Eilish ou John Legend. L'événement est suivis par plusieurs centaines de millions de spectateurs à travers le monde et permet de récolter près de 128 millions de dollars de promesse de dons qui seront utilisés dans la recherche d'un vaccin, et dans la production de masques et de respirateurs.
 </t>
         </is>
       </c>
@@ -512,51 +524,53 @@
           <t>Participants à une série de concerts</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alex Gaskarth[4]
-Alissa White-Gluz[5]
-Amy Lee[6]
-Amy Shark[7]
-Anne-Marie[8]
-Anthony Hamilton[9]
-Camila Cabello[10]
-Carla Morrison[11]
-Celeste[10]
-Charlie Puth[12]
-Chris Martin[10]
-Common[13]
-Dermot Kennedy[14]
-Elize Ryd[15]
-G Flip[16]
-Gloria Gaynor[17]
-Guy Sebastian[16]
-Ha*Ash[14]
-H.E.R.[18]
-Jack Johnson[19]
-James Bay[20]
-Jason Mraz[21]
-John Legend[22],[23]
-Jon Batiste[24]
-Joshua Bassett[25]
-Julianne Hough[26]
-Koffee[27]
-Meghan Trainor[28]
-Niall Horan[26]
-Noah Cyrus[29]
-Nomfusi[30]
-OneRepublic[26]
-Rod et Ruby Stewart (en)[31]
-Rufus Wainwright[32]
-Simone Simons[33]
-Steve Aoki[10]
-Tarja Turunen[34]
-Vance Joy[16]
-Wesley Schultz[35]
-Within Temptation[36]
-Years &amp; Years[7]
-Ziggy Marley[37]
+Alex Gaskarth
+Alissa White-Gluz
+Amy Lee
+Amy Shark
+Anne-Marie
+Anthony Hamilton
+Camila Cabello
+Carla Morrison
+Celeste
+Charlie Puth
+Chris Martin
+Common
+Dermot Kennedy
+Elize Ryd
+G Flip
+Gloria Gaynor
+Guy Sebastian
+Ha*Ash
+H.E.R.
+Jack Johnson
+James Bay
+Jason Mraz
+John Legend,
+Jon Batiste
+Joshua Bassett
+Julianne Hough
+Koffee
+Meghan Trainor
+Niall Horan
+Noah Cyrus
+Nomfusi
+OneRepublic
+Rod et Ruby Stewart (en)
+Rufus Wainwright
+Simone Simons
+Steve Aoki
+Tarja Turunen
+Vance Joy
+Wesley Schultz
+Within Temptation
+Years &amp; Years
+Ziggy Marley
 </t>
         </is>
       </c>
@@ -585,7 +599,9 @@
           <t>Participants aux concerts[38]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Adam Lambert,
@@ -690,9 +706,11 @@
           <t>Concerts diffusés en ligne</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces artistes interprètent leur chansons en ligne durant les six heures précédant le concert télévisé. L'intégralité du concert d'une durée de huit heures a été visionné plus de 23 millions de fois sur la chaîne Youtube de Global Citizen et plus de 6,2 millions de fois sur la chaîne Youtube de la ABC. Le live Twitter totalise quant à lui plus de 8,7 millions de vues et le live Facebook plus de 8,8 millions [39].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces artistes interprètent leur chansons en ligne durant les six heures précédant le concert télévisé. L'intégralité du concert d'une durée de huit heures a été visionné plus de 23 millions de fois sur la chaîne Youtube de Global Citizen et plus de 6,2 millions de fois sur la chaîne Youtube de la ABC. Le live Twitter totalise quant à lui plus de 8,7 millions de vues et le live Facebook plus de 8,8 millions .
 </t>
         </is>
       </c>
@@ -721,15 +739,52 @@
           <t>Concert diffusé à la télévision</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aux États-Unis, Jimmy Fallon, Jimmy Kimmel et Stephen Colbert ont présenté depuis chez eux le concert principal de 2 heures retransmis sur ABC, CBS et NBC, et réunit 20,7 millions de spectateurs [40]. L'événement a également été diffusée simultanément sur certains réseaux de télévision par câble, plates-formes de streaming et réseaux de diffusion internationaux américains.
-En France, le concert est animé par Daphné Bürki et André Manoukian sur France 2[41] et par Stéphanie Renouvin et Éric Jean-Jean, en simultané sur W9 et RTL2[42]. Il est aussi diffusé sur CStar en version originale et sans commentateur. Entre 2 h et 4 h du matin, 319 000 français sont devant leur télévision pour voir le concert en direct. En détail : 207 000 devant France 2 (soit 10,8 % du public) , 63 000 devant W9 (soit 3,3 % de part de marché) et enfin 49 000 téléspectateurs étaient devant CStar (soit 2,5 % de part de marché)[43]. Les rediffusions sur France 4 et France 2 le lendemain au soir réunissent quant à elles 951 000 spectateurs (645 000 sur France 2 et 306 000 sur France 4) [44]. Au total, 1,3 million de spectateurs français ont regardé le concert en direct et en rediffusion.
-Au Royaume-Uni, le concert diffusé entre autres par la BBC totalise 6 millions de téléspectateurs et 26% de part de marché[45].
-Le concert est diffusé dans de très nombreux pays d'Amérique Latine, notamment en Argentine, au Brésil, en Colombie et au Mexique. Il est vu par plus de 65 millions de spectateurs sur le continent sud américain [46].
-Le nombre de téléspectateurs autour du globe est estimé à plus de 270 millions [47].
-Diffusion internationale
-Le concert est retransmis sur de très nombreuses chaines de télévision à travers le monde dont voici les principales :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux États-Unis, Jimmy Fallon, Jimmy Kimmel et Stephen Colbert ont présenté depuis chez eux le concert principal de 2 heures retransmis sur ABC, CBS et NBC, et réunit 20,7 millions de spectateurs . L'événement a également été diffusée simultanément sur certains réseaux de télévision par câble, plates-formes de streaming et réseaux de diffusion internationaux américains.
+En France, le concert est animé par Daphné Bürki et André Manoukian sur France 2 et par Stéphanie Renouvin et Éric Jean-Jean, en simultané sur W9 et RTL2. Il est aussi diffusé sur CStar en version originale et sans commentateur. Entre 2 h et 4 h du matin, 319 000 français sont devant leur télévision pour voir le concert en direct. En détail : 207 000 devant France 2 (soit 10,8 % du public) , 63 000 devant W9 (soit 3,3 % de part de marché) et enfin 49 000 téléspectateurs étaient devant CStar (soit 2,5 % de part de marché). Les rediffusions sur France 4 et France 2 le lendemain au soir réunissent quant à elles 951 000 spectateurs (645 000 sur France 2 et 306 000 sur France 4) . Au total, 1,3 million de spectateurs français ont regardé le concert en direct et en rediffusion.
+Au Royaume-Uni, le concert diffusé entre autres par la BBC totalise 6 millions de téléspectateurs et 26% de part de marché.
+Le concert est diffusé dans de très nombreux pays d'Amérique Latine, notamment en Argentine, au Brésil, en Colombie et au Mexique. Il est vu par plus de 65 millions de spectateurs sur le continent sud américain .
+Le nombre de téléspectateurs autour du globe est estimé à plus de 270 millions .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Together_at_Home</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Together_at_Home</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Concert diffusé à la télévision</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Diffusion internationale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le concert est retransmis sur de très nombreuses chaines de télévision à travers le monde dont voici les principales :
 Afrique : BET, Comedy Central, MTV Africa, MTV Base et Vuzu
  Afrique du Sud : Vuzu
  Albanie : RTSH 2
@@ -788,31 +843,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Together_at_Home</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Maladies infectieuses/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Together_at_Home</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Autres concerts</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">D'autres concerts de ce type ont été diffusés cette année, notamment Eurovision: Europe Shine a Light, où des anciens vainqueurs du concours en plus des 41 participants prévus pour cette saison ont présenté une de leurs chansons de façon bénévole. Le concert a été diffusé dans 45 pays.
 </t>
